--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1041.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1041.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.884710558129586</v>
+        <v>0.462512195110321</v>
       </c>
       <c r="B1">
-        <v>3.456515882305023</v>
+        <v>1.316810131072998</v>
       </c>
       <c r="C1">
-        <v>2.626547815486966</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.430282127024352</v>
+        <v>2.060950756072998</v>
       </c>
       <c r="E1">
-        <v>2.048326137462412</v>
+        <v>1.124637722969055</v>
       </c>
     </row>
   </sheetData>
